--- a/CMMI-Nivel-2/PP-PMC/Informe_Avance_Quincenal__PP-PMC_01.xlsx
+++ b/CMMI-Nivel-2/PP-PMC/Informe_Avance_Quincenal__PP-PMC_01.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elvis\Desktop\sistema-facturacion-inventario\CMMI-Nivel-2\PP-PMC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="165" windowWidth="3390" windowHeight="3360"/>
   </bookViews>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Plantilla!$C$2:$CA$79</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
   <si>
     <t>al</t>
   </si>
@@ -295,6 +300,12 @@
   <si>
     <t>Jack pinao</t>
   </si>
+  <si>
+    <t xml:space="preserve">Se asigno 4 laptop   para cada integrante del grupo para desarollar la documentacion </t>
+  </si>
+  <si>
+    <t>se coordinara la exposion en  la sede utp 28 de julio - lima para corregir errores   y ordenar cada tema del pp_pmc</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +317,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -426,6 +437,13 @@
       <b/>
       <vertAlign val="superscript"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -624,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,14 +1027,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1044,7 +1059,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-PE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1361,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79233024"/>
-        <c:axId val="79234944"/>
+        <c:axId val="5543448"/>
+        <c:axId val="5544232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79233024"/>
+        <c:axId val="5543448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1451,14 +1466,14 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79234944"/>
+        <c:crossAx val="5544232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79234944"/>
+        <c:axId val="5544232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1543,7 +1558,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79233024"/>
+        <c:crossAx val="5543448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1766,7 +1781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1801,7 +1816,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2013,8 +2028,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:CE87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CB52" sqref="CB52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:BZ79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7959,28 +7974,28 @@
       <c r="X70" s="81"/>
       <c r="Y70" s="81"/>
       <c r="Z70" s="81"/>
-      <c r="AA70" s="149"/>
-      <c r="AB70" s="149"/>
-      <c r="AC70" s="149"/>
-      <c r="AD70" s="149"/>
-      <c r="AE70" s="149"/>
-      <c r="AF70" s="149"/>
-      <c r="AG70" s="149"/>
-      <c r="AH70" s="149"/>
-      <c r="AI70" s="149"/>
-      <c r="AJ70" s="149"/>
-      <c r="AK70" s="149"/>
-      <c r="AL70" s="149"/>
-      <c r="AM70" s="149"/>
-      <c r="AN70" s="149"/>
-      <c r="AO70" s="149"/>
-      <c r="AP70" s="149"/>
-      <c r="AQ70" s="149"/>
-      <c r="AR70" s="149"/>
-      <c r="AS70" s="149"/>
-      <c r="AT70" s="149"/>
-      <c r="AU70" s="149"/>
-      <c r="AV70" s="149"/>
+      <c r="AA70" s="148"/>
+      <c r="AB70" s="148"/>
+      <c r="AC70" s="148"/>
+      <c r="AD70" s="148"/>
+      <c r="AE70" s="148"/>
+      <c r="AF70" s="148"/>
+      <c r="AG70" s="148"/>
+      <c r="AH70" s="148"/>
+      <c r="AI70" s="148"/>
+      <c r="AJ70" s="148"/>
+      <c r="AK70" s="148"/>
+      <c r="AL70" s="148"/>
+      <c r="AM70" s="148"/>
+      <c r="AN70" s="148"/>
+      <c r="AO70" s="148"/>
+      <c r="AP70" s="148"/>
+      <c r="AQ70" s="148"/>
+      <c r="AR70" s="148"/>
+      <c r="AS70" s="148"/>
+      <c r="AT70" s="148"/>
+      <c r="AU70" s="148"/>
+      <c r="AV70" s="148"/>
       <c r="AW70" s="93"/>
       <c r="AX70" s="93"/>
       <c r="AY70" s="93"/>
@@ -7997,12 +8012,12 @@
       <c r="BJ70" s="93"/>
       <c r="BK70" s="93"/>
       <c r="BL70" s="93"/>
-      <c r="BM70" s="150"/>
-      <c r="BN70" s="150"/>
-      <c r="BO70" s="150"/>
-      <c r="BP70" s="150"/>
-      <c r="BQ70" s="150"/>
-      <c r="BR70" s="150"/>
+      <c r="BM70" s="149"/>
+      <c r="BN70" s="149"/>
+      <c r="BO70" s="149"/>
+      <c r="BP70" s="149"/>
+      <c r="BQ70" s="149"/>
+      <c r="BR70" s="149"/>
       <c r="BS70" s="55"/>
       <c r="BT70" s="55"/>
       <c r="BU70" s="55"/>
@@ -8572,7 +8587,7 @@
     </row>
     <row r="78" spans="3:80" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="146" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D78" s="147"/>
       <c r="E78" s="147"/>
@@ -8651,84 +8666,86 @@
       <c r="BZ78" s="147"/>
     </row>
     <row r="79" spans="3:80" x14ac:dyDescent="0.2">
-      <c r="C79" s="148"/>
-      <c r="D79" s="148"/>
-      <c r="E79" s="148"/>
-      <c r="F79" s="148"/>
-      <c r="G79" s="148"/>
-      <c r="H79" s="148"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="148"/>
-      <c r="K79" s="148"/>
-      <c r="L79" s="148"/>
-      <c r="M79" s="148"/>
-      <c r="N79" s="148"/>
-      <c r="O79" s="148"/>
-      <c r="P79" s="148"/>
-      <c r="Q79" s="148"/>
-      <c r="R79" s="148"/>
-      <c r="S79" s="148"/>
-      <c r="T79" s="148"/>
-      <c r="U79" s="148"/>
-      <c r="V79" s="148"/>
-      <c r="W79" s="148"/>
-      <c r="X79" s="148"/>
-      <c r="Y79" s="148"/>
-      <c r="Z79" s="148"/>
-      <c r="AA79" s="148"/>
-      <c r="AB79" s="148"/>
-      <c r="AC79" s="148"/>
-      <c r="AD79" s="148"/>
-      <c r="AE79" s="148"/>
-      <c r="AF79" s="148"/>
-      <c r="AG79" s="148"/>
-      <c r="AH79" s="148"/>
-      <c r="AI79" s="148"/>
-      <c r="AJ79" s="148"/>
-      <c r="AK79" s="148"/>
-      <c r="AL79" s="148"/>
-      <c r="AM79" s="148"/>
-      <c r="AN79" s="148"/>
-      <c r="AO79" s="148"/>
-      <c r="AP79" s="148"/>
-      <c r="AQ79" s="148"/>
-      <c r="AR79" s="148"/>
-      <c r="AS79" s="148"/>
-      <c r="AT79" s="148"/>
-      <c r="AU79" s="148"/>
-      <c r="AV79" s="148"/>
-      <c r="AW79" s="148"/>
-      <c r="AX79" s="148"/>
-      <c r="AY79" s="148"/>
-      <c r="AZ79" s="148"/>
-      <c r="BA79" s="148"/>
-      <c r="BB79" s="148"/>
-      <c r="BC79" s="148"/>
-      <c r="BD79" s="148"/>
-      <c r="BE79" s="148"/>
-      <c r="BF79" s="148"/>
-      <c r="BG79" s="148"/>
-      <c r="BH79" s="148"/>
-      <c r="BI79" s="148"/>
-      <c r="BJ79" s="148"/>
-      <c r="BK79" s="148"/>
-      <c r="BL79" s="148"/>
-      <c r="BM79" s="148"/>
-      <c r="BN79" s="148"/>
-      <c r="BO79" s="148"/>
-      <c r="BP79" s="148"/>
-      <c r="BQ79" s="148"/>
-      <c r="BR79" s="148"/>
-      <c r="BS79" s="148"/>
-      <c r="BT79" s="148"/>
-      <c r="BU79" s="148"/>
-      <c r="BV79" s="148"/>
-      <c r="BW79" s="148"/>
-      <c r="BX79" s="148"/>
-      <c r="BY79" s="148"/>
-      <c r="BZ79" s="148"/>
+      <c r="C79" s="146" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="147"/>
+      <c r="E79" s="147"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="147"/>
+      <c r="I79" s="147"/>
+      <c r="J79" s="147"/>
+      <c r="K79" s="147"/>
+      <c r="L79" s="147"/>
+      <c r="M79" s="147"/>
+      <c r="N79" s="147"/>
+      <c r="O79" s="147"/>
+      <c r="P79" s="147"/>
+      <c r="Q79" s="147"/>
+      <c r="R79" s="147"/>
+      <c r="S79" s="147"/>
+      <c r="T79" s="147"/>
+      <c r="U79" s="147"/>
+      <c r="V79" s="147"/>
+      <c r="W79" s="147"/>
+      <c r="X79" s="147"/>
+      <c r="Y79" s="147"/>
+      <c r="Z79" s="147"/>
+      <c r="AA79" s="147"/>
+      <c r="AB79" s="147"/>
+      <c r="AC79" s="147"/>
+      <c r="AD79" s="147"/>
+      <c r="AE79" s="147"/>
+      <c r="AF79" s="147"/>
+      <c r="AG79" s="147"/>
+      <c r="AH79" s="147"/>
+      <c r="AI79" s="147"/>
+      <c r="AJ79" s="147"/>
+      <c r="AK79" s="147"/>
+      <c r="AL79" s="147"/>
+      <c r="AM79" s="147"/>
+      <c r="AN79" s="147"/>
+      <c r="AO79" s="147"/>
+      <c r="AP79" s="147"/>
+      <c r="AQ79" s="147"/>
+      <c r="AR79" s="147"/>
+      <c r="AS79" s="147"/>
+      <c r="AT79" s="147"/>
+      <c r="AU79" s="147"/>
+      <c r="AV79" s="147"/>
+      <c r="AW79" s="147"/>
+      <c r="AX79" s="147"/>
+      <c r="AY79" s="147"/>
+      <c r="AZ79" s="147"/>
+      <c r="BA79" s="147"/>
+      <c r="BB79" s="147"/>
+      <c r="BC79" s="147"/>
+      <c r="BD79" s="147"/>
+      <c r="BE79" s="147"/>
+      <c r="BF79" s="147"/>
+      <c r="BG79" s="147"/>
+      <c r="BH79" s="147"/>
+      <c r="BI79" s="147"/>
+      <c r="BJ79" s="147"/>
+      <c r="BK79" s="147"/>
+      <c r="BL79" s="147"/>
+      <c r="BM79" s="147"/>
+      <c r="BN79" s="147"/>
+      <c r="BO79" s="147"/>
+      <c r="BP79" s="147"/>
+      <c r="BQ79" s="147"/>
+      <c r="BR79" s="147"/>
+      <c r="BS79" s="147"/>
+      <c r="BT79" s="147"/>
+      <c r="BU79" s="147"/>
+      <c r="BV79" s="147"/>
+      <c r="BW79" s="147"/>
+      <c r="BX79" s="147"/>
+      <c r="BY79" s="147"/>
+      <c r="BZ79" s="147"/>
     </row>
-    <row r="80" spans="3:80" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D80" s="46">
         <v>1</v>
       </c>

--- a/CMMI-Nivel-2/PP-PMC/Informe_Avance_Quincenal__PP-PMC_01.xlsx
+++ b/CMMI-Nivel-2/PP-PMC/Informe_Avance_Quincenal__PP-PMC_01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elvis\Documents\GitHub\sistema-facturacion-inventario\CMMI-Nivel-2\PP-PMC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="285" windowWidth="3390" windowHeight="3240"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="3390" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="2" r:id="rId1"/>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Plantilla!$C$2:$CA$79</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
   <si>
     <t>al</t>
   </si>
@@ -179,9 +184,6 @@
     <t>Integrantes</t>
   </si>
   <si>
-    <t>Se detecto ciertas limitaciones con respecto a los horarios de reunion</t>
-  </si>
-  <si>
     <t>Se detecto cierta lentitud en la manera de avanzar los trabajos</t>
   </si>
   <si>
@@ -210,9 +212,6 @@
       </rPr>
       <t xml:space="preserve">Semana del </t>
     </r>
-  </si>
-  <si>
-    <t>Chritian Benites</t>
   </si>
   <si>
     <t>Actas de reunión interna</t>
@@ -245,34 +244,16 @@
     <t>Aprobacion por el Usuario reunión externa</t>
   </si>
   <si>
-    <t>Tomamos la decisiones de agendar reuniones despues de clase y las coordinaciones tecnicas a traves del Email, hangouts,GitHu.</t>
-  </si>
-  <si>
-    <t>Redistribución mejor de las tareas a cada integrante del grupo, repaso de la teoria</t>
-  </si>
-  <si>
-    <t>Revisión mas continuo del GitHub</t>
-  </si>
-  <si>
     <t>PP-PMC</t>
   </si>
   <si>
     <t>Este primer informe de avance quincenal abarca desde el incio del proyecto hasta la primera presentación con el usuario</t>
   </si>
   <si>
-    <t>kevin laureano</t>
-  </si>
-  <si>
     <t>Elvis Garcia</t>
   </si>
   <si>
     <t>Jack Pinao</t>
-  </si>
-  <si>
-    <t>kevin Laureano</t>
-  </si>
-  <si>
-    <t>Jack pinao</t>
   </si>
   <si>
     <t>se coordinara la exposicion en  la sede utp 28 de julio - lima para corregir errores   y ordenar cada tema del pp_pmc</t>
@@ -285,12 +266,6 @@
   </si>
   <si>
     <t>No definir bien el alcance de desarrollo del proyecto</t>
-  </si>
-  <si>
-    <t>Mal calculo de tiempos en el desarrollo del proyecto</t>
-  </si>
-  <si>
-    <t>Poca experiencia del personal puede afectar la calidad de los productos</t>
   </si>
   <si>
     <t>Redefinir el alcance del proyecto</t>
@@ -315,7 +290,29 @@
 programación</t>
   </si>
   <si>
+    <t>Elvis García</t>
+  </si>
+  <si>
     <t>Líder de Proyecto:</t>
+  </si>
+  <si>
+    <t>Poca experiencia del personal puede afectar
+la calidad de los productos</t>
+  </si>
+  <si>
+    <t>Mal cálculo de tiempos en el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Se detecto ciertas limitaciones con respecto a los horarios de reunión</t>
+  </si>
+  <si>
+    <t>Tomamos la decisiones de agendar reuniones después de clase y las coordinaciones técnicas a traves del Email, hangouts,GitHub.</t>
+  </si>
+  <si>
+    <t>Empleo de la herramienta de seguimiento de flujo de procesos de proyecto(www.trello.com)</t>
+  </si>
+  <si>
+    <t>Revisión mas continua del GitHub</t>
   </si>
 </sst>
 </file>
@@ -653,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1085,6 +1082,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +1106,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-PE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1430,11 +1430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45300480"/>
-        <c:axId val="45301056"/>
+        <c:axId val="215607016"/>
+        <c:axId val="215607408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45300480"/>
+        <c:axId val="215607016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1520,14 +1520,14 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45301056"/>
+        <c:crossAx val="215607408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45301056"/>
+        <c:axId val="215607408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1612,7 +1612,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45300480"/>
+        <c:crossAx val="215607016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1835,7 +1835,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1870,7 +1870,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2082,8 +2082,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:FA87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CF17" sqref="CF17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CD42" sqref="CD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2284,7 +2284,7 @@
       <c r="AX2" s="114"/>
       <c r="AY2" s="114"/>
       <c r="AZ2" s="147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BA2" s="147"/>
       <c r="BB2" s="147"/>
@@ -2691,7 +2691,7 @@
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
       <c r="BB7" s="149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BC7" s="149"/>
       <c r="BD7" s="149"/>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="9" spans="1:83" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="154" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D9" s="154"/>
       <c r="E9" s="154"/>
@@ -2820,7 +2820,7 @@
       <c r="K9" s="154"/>
       <c r="L9" s="27"/>
       <c r="M9" s="155" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N9" s="155"/>
       <c r="O9" s="155"/>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="156" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="156"/>
       <c r="F15" s="156"/>
@@ -3327,7 +3327,7 @@
       <c r="L15" s="156"/>
       <c r="M15" s="156"/>
       <c r="N15" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
@@ -3353,7 +3353,7 @@
       <c r="AJ15" s="65"/>
       <c r="AK15" s="65"/>
       <c r="AL15" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM15" s="65"/>
       <c r="AN15" s="65"/>
@@ -3383,7 +3383,7 @@
       <c r="BL15" s="65"/>
       <c r="BM15" s="65"/>
       <c r="BN15" s="64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BO15" s="64"/>
       <c r="BP15" s="64"/>
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
@@ -3422,7 +3422,7 @@
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
@@ -3448,7 +3448,7 @@
       <c r="AJ16" s="65"/>
       <c r="AK16" s="65"/>
       <c r="AL16" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM16" s="65"/>
       <c r="AN16" s="65"/>
@@ -3478,7 +3478,7 @@
       <c r="BL16" s="65"/>
       <c r="BM16" s="65"/>
       <c r="BN16" s="104" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="BO16" s="104"/>
       <c r="BP16" s="104"/>
@@ -3505,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="65"/>
       <c r="F17" s="65"/>
@@ -3517,7 +3517,7 @@
       <c r="L17" s="65"/>
       <c r="M17" s="65"/>
       <c r="N17" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
@@ -3543,7 +3543,7 @@
       <c r="AJ17" s="65"/>
       <c r="AK17" s="65"/>
       <c r="AL17" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM17" s="65"/>
       <c r="AN17" s="65"/>
@@ -3573,7 +3573,7 @@
       <c r="BL17" s="65"/>
       <c r="BM17" s="65"/>
       <c r="BN17" s="64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BO17" s="64"/>
       <c r="BP17" s="64"/>
@@ -3600,7 +3600,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
@@ -3612,7 +3612,7 @@
       <c r="L18" s="65"/>
       <c r="M18" s="65"/>
       <c r="N18" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
@@ -3638,7 +3638,7 @@
       <c r="AJ18" s="65"/>
       <c r="AK18" s="65"/>
       <c r="AL18" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM18" s="65"/>
       <c r="AN18" s="65"/>
@@ -3668,7 +3668,7 @@
       <c r="BL18" s="65"/>
       <c r="BM18" s="65"/>
       <c r="BN18" s="64" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="BO18" s="64"/>
       <c r="BP18" s="64"/>
@@ -3692,7 +3692,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="65"/>
@@ -3704,7 +3704,7 @@
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
       <c r="N19" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
@@ -3730,7 +3730,7 @@
       <c r="AJ19" s="65"/>
       <c r="AK19" s="65"/>
       <c r="AL19" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM19" s="65"/>
       <c r="AN19" s="65"/>
@@ -3760,7 +3760,7 @@
       <c r="BL19" s="65"/>
       <c r="BM19" s="65"/>
       <c r="BN19" s="64" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BO19" s="64"/>
       <c r="BP19" s="64"/>
@@ -3790,7 +3790,7 @@
       <c r="CM19" s="65"/>
       <c r="CN19" s="65"/>
       <c r="CO19" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="CP19" s="65"/>
       <c r="CQ19" s="65"/>
@@ -3816,7 +3816,7 @@
       <c r="DK19" s="65"/>
       <c r="DL19" s="65"/>
       <c r="DM19" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="DN19" s="65"/>
       <c r="DO19" s="65"/>
@@ -3846,7 +3846,7 @@
       <c r="EM19" s="65"/>
       <c r="EN19" s="65"/>
       <c r="EO19" s="64" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="EP19" s="64"/>
       <c r="EQ19" s="64"/>
@@ -3868,7 +3868,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="65"/>
       <c r="F20" s="65"/>
@@ -3880,7 +3880,7 @@
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
       <c r="N20" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
@@ -3906,7 +3906,7 @@
       <c r="AJ20" s="65"/>
       <c r="AK20" s="65"/>
       <c r="AL20" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM20" s="65"/>
       <c r="AN20" s="65"/>
@@ -3936,7 +3936,7 @@
       <c r="BL20" s="65"/>
       <c r="BM20" s="65"/>
       <c r="BN20" s="64" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BO20" s="64"/>
       <c r="BP20" s="64"/>
@@ -3963,7 +3963,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E21" s="65"/>
       <c r="F21" s="65"/>
@@ -3975,7 +3975,7 @@
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
       <c r="N21" s="65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
@@ -4001,7 +4001,7 @@
       <c r="AJ21" s="65"/>
       <c r="AK21" s="65"/>
       <c r="AL21" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM21" s="65"/>
       <c r="AN21" s="65"/>
@@ -4031,7 +4031,7 @@
       <c r="BL21" s="65"/>
       <c r="BM21" s="65"/>
       <c r="BN21" s="64" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BO21" s="64"/>
       <c r="BP21" s="64"/>
@@ -4562,7 +4562,7 @@
         <v>33</v>
       </c>
       <c r="V28" s="28" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W28" s="137" t="s">
         <v>5</v>
@@ -4637,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -4669,7 +4669,7 @@
       <c r="X29" s="161"/>
       <c r="Y29" s="161"/>
       <c r="Z29" s="65" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AA29" s="65"/>
       <c r="AB29" s="65"/>
@@ -4696,7 +4696,7 @@
       <c r="AW29" s="65"/>
       <c r="AX29" s="65"/>
       <c r="AY29" s="104" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AZ29" s="104"/>
       <c r="BA29" s="104"/>
@@ -4737,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E30" s="65"/>
       <c r="F30" s="65"/>
@@ -4769,7 +4769,7 @@
       <c r="X30" s="64"/>
       <c r="Y30" s="64"/>
       <c r="Z30" s="65" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA30" s="65"/>
       <c r="AB30" s="65"/>
@@ -4796,7 +4796,7 @@
       <c r="AW30" s="65"/>
       <c r="AX30" s="65"/>
       <c r="AY30" s="104" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ30" s="104"/>
       <c r="BA30" s="104"/>
@@ -4837,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E31" s="66"/>
       <c r="F31" s="66"/>
@@ -4869,7 +4869,7 @@
       <c r="X31" s="64"/>
       <c r="Y31" s="64"/>
       <c r="Z31" s="66" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AA31" s="66"/>
       <c r="AB31" s="66"/>
@@ -4896,7 +4896,7 @@
       <c r="AW31" s="66"/>
       <c r="AX31" s="66"/>
       <c r="AY31" s="98" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AZ31" s="98"/>
       <c r="BA31" s="98"/>
@@ -4936,7 +4936,7 @@
       <c r="C32" s="22">
         <v>4</v>
       </c>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="142" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="141"/>
@@ -4963,11 +4963,13 @@
       <c r="V32" s="20">
         <v>1</v>
       </c>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
+      <c r="W32" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="162"/>
       <c r="Z32" s="142" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AA32" s="141"/>
       <c r="AB32" s="141"/>
@@ -4994,14 +4996,16 @@
       <c r="AW32" s="141"/>
       <c r="AX32" s="141"/>
       <c r="AY32" s="143" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AZ32" s="143"/>
       <c r="BA32" s="143"/>
       <c r="BB32" s="143"/>
       <c r="BC32" s="143"/>
       <c r="BD32" s="143"/>
-      <c r="BE32" s="71"/>
+      <c r="BE32" s="71" t="s">
+        <v>11</v>
+      </c>
       <c r="BF32" s="71"/>
       <c r="BG32" s="71"/>
       <c r="BH32" s="71"/>
@@ -5370,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E37" s="96"/>
       <c r="F37" s="96"/>
@@ -5401,7 +5405,7 @@
       <c r="AE37" s="96"/>
       <c r="AF37" s="96"/>
       <c r="AG37" s="96" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="AH37" s="96"/>
       <c r="AI37" s="96"/>
@@ -5458,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="66"/>
       <c r="F38" s="66"/>
@@ -5489,7 +5493,7 @@
       <c r="AE38" s="66"/>
       <c r="AF38" s="66"/>
       <c r="AG38" s="66" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="AH38" s="66"/>
       <c r="AI38" s="66"/>
@@ -5786,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="135" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E42" s="135"/>
       <c r="F42" s="135"/>
@@ -6112,7 +6116,7 @@
     </row>
     <row r="47" spans="3:83" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="131" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D47" s="132"/>
       <c r="E47" s="132"/>
@@ -6299,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="136" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E49" s="136"/>
       <c r="F49" s="136"/>
@@ -6403,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E50" s="63"/>
       <c r="F50" s="63"/>
@@ -6505,7 +6509,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E51" s="63"/>
       <c r="F51" s="63"/>
@@ -6609,7 +6613,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="63"/>
@@ -6714,7 +6718,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E53" s="63"/>
       <c r="F53" s="63"/>
@@ -6816,7 +6820,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E54" s="63"/>
       <c r="F54" s="63"/>
@@ -6911,7 +6915,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="65" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E55" s="65"/>
       <c r="F55" s="65"/>
@@ -7650,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" s="102"/>
       <c r="F64" s="102"/>
@@ -8763,7 +8767,7 @@
     </row>
     <row r="78" spans="3:80" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="90" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D78" s="91"/>
       <c r="E78" s="91"/>
@@ -8843,7 +8847,7 @@
     </row>
     <row r="79" spans="3:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="90" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D79" s="91"/>
       <c r="E79" s="91"/>
@@ -8926,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="55:68" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8948,7 +8952,7 @@
     <row r="87" spans="55:68" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="BE87" s="45"/>
       <c r="BH87" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -9222,7 +9226,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA37:CB39 BE32:BH32 W32:Y32 BW39:BZ39 BE70:BL70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA37:CB39 BW39:BZ39 BE70:BL70">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -9249,13 +9253,13 @@
           <x14:formula1>
             <xm:f>Tablas!$J$4:$J$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BE29:BH31</xm:sqref>
+          <xm:sqref>BE29:BH32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$H$4:$H$5</xm:f>
           </x14:formula1>
-          <xm:sqref>W29:Y31</xm:sqref>
+          <xm:sqref>W29:Y32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9268,7 +9272,7 @@
   <dimension ref="D3:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9317,7 +9321,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.2">
@@ -9334,7 +9338,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.2">
@@ -9348,7 +9352,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.2">
@@ -9356,7 +9360,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
